--- a/Automatizacion BEL Web/Datos.xlsx
+++ b/Automatizacion BEL Web/Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67847\Downloads\bautomata-master\Automatizacion BEL Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63839\Documents\BITesting-DesignSprint2.0\Automatizacion BEL Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7369B0-D869-40A3-A961-C1279EE1BA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0065E35-D106-4996-81E1-A95948056F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0029890E-033D-4DFF-ADD2-A02E36070D60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0029890E-033D-4DFF-ADD2-A02E36070D60}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -226,10 +226,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -567,21 +567,21 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -589,23 +589,23 @@
         <v>163001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>112233</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -632,18 +632,18 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+      <selection activeCell="C3" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="4"/>
-    <col min="4" max="4" width="38.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="4"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -657,13 +657,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="D2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="D3" t="s">
         <v>23</v>
@@ -684,15 +684,15 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" style="4" customWidth="1"/>
-    <col min="4" max="4" width="38.77734375" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -706,11 +706,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -741,15 +741,15 @@
       <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="4"/>
-    <col min="4" max="4" width="38.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="4"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -763,22 +763,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
     </row>
   </sheetData>
@@ -795,52 +795,52 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>

--- a/Automatizacion BEL Web/Datos.xlsx
+++ b/Automatizacion BEL Web/Datos.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63839\Documents\BITesting-DesignSprint2.0\Automatizacion BEL Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0065E35-D106-4996-81E1-A95948056F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B135B6-B888-4730-9BD6-84F933E0F422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0029890E-033D-4DFF-ADD2-A02E36070D60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{0029890E-033D-4DFF-ADD2-A02E36070D60}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="TransferenciasPropias" sheetId="2" r:id="rId2"/>
-    <sheet name="AgregarCuentasTerceros" sheetId="5" r:id="rId3"/>
-    <sheet name="TransferenciasTerceros" sheetId="3" r:id="rId4"/>
-    <sheet name="Data" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
-  <si>
-    <t>Credenciales para LOGIN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Código</t>
   </si>
@@ -56,64 +50,43 @@
     <t>Respuesta</t>
   </si>
   <si>
-    <t>Cuenta a debitar</t>
-  </si>
-  <si>
-    <t>Cuenta destino</t>
-  </si>
-  <si>
     <t>Monto</t>
   </si>
   <si>
-    <t>No. Cuenta</t>
-  </si>
-  <si>
-    <t>Tipo Cuenta</t>
-  </si>
-  <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>TiposCuentasTerceros</t>
-  </si>
-  <si>
-    <t>Ahorro Bl</t>
-  </si>
-  <si>
-    <t>Plan Dorado/ Planifica</t>
-  </si>
-  <si>
-    <t>Plan Futuro Programado</t>
-  </si>
-  <si>
-    <t>Monetarios Bl</t>
-  </si>
-  <si>
-    <t>Préstamos Bl</t>
-  </si>
-  <si>
-    <t>Tarjetas de Crédito</t>
-  </si>
-  <si>
-    <t>Westrust Monetaria</t>
-  </si>
-  <si>
-    <t>Westrust Ahorro</t>
-  </si>
-  <si>
-    <t>utiliza este Token para adicionar tu cuenta de terceros numero + cuenta</t>
-  </si>
-  <si>
     <t>Inicio de sesion correcto</t>
   </si>
   <si>
-    <t>Error en transferencia</t>
+    <t>estela</t>
+  </si>
+  <si>
+    <t>0327978</t>
   </si>
   <si>
     <t>Transferencia fue realizada exitosamente.</t>
   </si>
   <si>
-    <t>DOCVILL</t>
+    <t>SALDO INSUFICIENTE</t>
+  </si>
+  <si>
+    <t>0000002238</t>
+  </si>
+  <si>
+    <t>0120296942</t>
+  </si>
+  <si>
+    <t>0920011285</t>
+  </si>
+  <si>
+    <t>Credenciales para login</t>
+  </si>
+  <si>
+    <t>Cuenta debito</t>
+  </si>
+  <si>
+    <t>Cuenta credito</t>
+  </si>
+  <si>
+    <t>Resultado</t>
   </si>
 </sst>
 </file>
@@ -172,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,18 +154,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor rgb="FF003764"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -200,36 +167,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -252,6 +276,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF003764"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFFF5050"/>
     </mruColors>
@@ -265,6 +290,116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323021</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2CBE49-FC4D-459E-83A1-0FA6ECF80D9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1085021" cy="930706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C98CA45-3F21-9287-D83D-C28C29F3F780}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="1085021" cy="930706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -564,288 +699,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A488C4-EEB9-4BEC-B4A3-7FAE92090852}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" s="9">
+        <v>1783331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>163001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" s="10">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
-        <v>112233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5">
+  <conditionalFormatting sqref="B6">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Inicio de sesion correcto"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DCB02E-F304-4A78-B843-E6E6405E8EA0}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="A2:C3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="4"/>
+    <col min="3" max="3" width="11.5703125" style="1"/>
     <col min="4" max="4" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" s="6">
+        <v>3306021</v>
+      </c>
+      <c r="C3" s="7">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3507113</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="D2" t="s">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="D3" t="s">
-        <v>23</v>
+      <c r="D7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2843C59-0DA1-4857-A4C6-80767D3F8942}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15" style="4" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F2E3EA5D-2F40-4AA8-8E65-06B2807D0FCD}">
-          <x14:formula1>
-            <xm:f>Data!$A$2:$A$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C312E6-45F8-4190-A267-9D9F05B611C1}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="4"/>
-    <col min="4" max="4" width="38.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CEA572-7AF6-4305-B65D-9E93458CBE89}">
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>